--- a/Copyfinallsr/lsr/data/HR_data_pairs_connected_fixed.xlsx
+++ b/Copyfinallsr/lsr/data/HR_data_pairs_connected_fixed.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyriakos\OneDrive\Υπολογιστής\Copyfinallsr\lsr\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E47765E9-7F3B-436D-8B71-8F1D4D185070}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -31,51 +37,6 @@
     <t>selogHR</t>
   </si>
   <si>
-    <t>ALLIANCE_1</t>
-  </si>
-  <si>
-    <t>E1912</t>
-  </si>
-  <si>
-    <t>FLAIR</t>
-  </si>
-  <si>
-    <t>FLAIR VEN</t>
-  </si>
-  <si>
-    <t>GLOW</t>
-  </si>
-  <si>
-    <t>CLL14</t>
-  </si>
-  <si>
-    <t>iLLUMINATE</t>
-  </si>
-  <si>
-    <t>RESONATE 2</t>
-  </si>
-  <si>
-    <t>ELEVATE_1</t>
-  </si>
-  <si>
-    <t>ELEVATE_2</t>
-  </si>
-  <si>
-    <t>SEQUOIA</t>
-  </si>
-  <si>
-    <t>GAIA_1</t>
-  </si>
-  <si>
-    <t>GAIA_2</t>
-  </si>
-  <si>
-    <t>GAIA_3</t>
-  </si>
-  <si>
-    <t>BRIDGE_STUDY</t>
-  </si>
-  <si>
     <t>BR</t>
   </si>
   <si>
@@ -119,13 +80,58 @@
   </si>
   <si>
     <t>Ven + R</t>
+  </si>
+  <si>
+    <t>study 1</t>
+  </si>
+  <si>
+    <t>study 2</t>
+  </si>
+  <si>
+    <t>study 3</t>
+  </si>
+  <si>
+    <t>study 4</t>
+  </si>
+  <si>
+    <t>study 5</t>
+  </si>
+  <si>
+    <t>study 6</t>
+  </si>
+  <si>
+    <t>study 7</t>
+  </si>
+  <si>
+    <t>study 8</t>
+  </si>
+  <si>
+    <t>study 9</t>
+  </si>
+  <si>
+    <t>study 10</t>
+  </si>
+  <si>
+    <t>study 11</t>
+  </si>
+  <si>
+    <t>study 12</t>
+  </si>
+  <si>
+    <t>study 13</t>
+  </si>
+  <si>
+    <t>study 14</t>
+  </si>
+  <si>
+    <t>study 15</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -188,13 +194,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -232,7 +246,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -266,6 +280,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -300,9 +315,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -475,14 +491,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.44140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,49 +520,49 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="D2">
-        <v>-1.021</v>
+        <v>-1.0209999999999999</v>
       </c>
       <c r="E2">
-        <v>0.181</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D3">
-        <v>-0.994</v>
+        <v>-0.99399999999999999</v>
       </c>
       <c r="E3">
-        <v>0.162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>0.16200000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="D4">
         <v>-0.82</v>
@@ -550,117 +571,117 @@
         <v>0.16</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D5">
         <v>-1.139</v>
       </c>
       <c r="E5">
-        <v>0.238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="D6">
         <v>-1.31</v>
       </c>
       <c r="E6">
-        <v>0.195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.19500000000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D7">
         <v>-1.171</v>
       </c>
       <c r="E7">
-        <v>0.179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8">
+        <v>-1.3859999999999999</v>
+      </c>
+      <c r="E8">
+        <v>0.22700000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>-1.8720000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.18099999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10">
+        <v>-1.9670000000000001</v>
+      </c>
+      <c r="E10">
+        <v>0.17699999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>29</v>
       </c>
-      <c r="D8">
-        <v>-1.386</v>
-      </c>
-      <c r="E8">
-        <v>0.227</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9">
-        <v>-1.872</v>
-      </c>
-      <c r="E9">
-        <v>0.181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" t="s">
-        <v>30</v>
-      </c>
-      <c r="D10">
-        <v>-1.967</v>
-      </c>
-      <c r="E10">
-        <v>0.177</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="D11">
         <v>-1.427</v>
@@ -669,32 +690,32 @@
         <v>0.161</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C12" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="D12">
         <v>-1.238</v>
       </c>
       <c r="E12">
-        <v>0.164</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.16400000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="D13">
         <v>-0.755</v>
@@ -703,49 +724,49 @@
         <v>0.193</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="D14">
         <v>-1.204</v>
       </c>
       <c r="E14">
-        <v>0.231</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.23100000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15">
+        <v>-0.35699999999999998</v>
+      </c>
+      <c r="E15">
+        <v>8.2000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>34</v>
       </c>
-      <c r="D15">
-        <v>-0.357</v>
-      </c>
-      <c r="E15">
-        <v>0.082</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>19</v>
-      </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="D16">
         <v>-0.6</v>
